--- a/ePICreator/Adalimumab.xlsx
+++ b/ePICreator/Adalimumab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1488EE-DAB5-C845-9122-93874CBF30B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EDC79D-5C16-7D4C-A410-54ACE03DE249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="170">
   <si>
     <t>id</t>
   </si>
@@ -87,9 +87,6 @@
     <t>concept</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Packaging_type</t>
   </si>
   <si>
-    <t>packaging.quantity</t>
-  </si>
-  <si>
     <t>packaging_material</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
   </si>
   <si>
     <t>identifier_value</t>
-  </si>
-  <si>
-    <t>timestamp</t>
   </si>
   <si>
     <t>https://www.gravitatehealth.eu/sid/doc</t>
@@ -359,14 +350,14 @@
     <t>PDC6A3C0OX</t>
   </si>
   <si>
-    <t>QTT17582CB</t>
-  </si>
-  <si>
-    <t>55X04QC32I</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Water </t>
+    <t>3 ml</t>
+  </si>
+  <si>
+    <t>Pre-filled pen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Glass type </t>
     </r>
     <r>
       <rPr>
@@ -375,44 +366,6 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> injections</t>
-    </r>
-  </si>
-  <si>
-    <t>059QF0KO0R</t>
-  </si>
-  <si>
-    <t>Metacresol</t>
-  </si>
-  <si>
-    <t>GGO4Y809LO</t>
-  </si>
-  <si>
-    <t>3 ml</t>
-  </si>
-  <si>
-    <t>Pre-filled pen</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Glass type </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
       <t>1</t>
     </r>
   </si>
@@ -427,29 +380,6 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <r>
-      <t>2018-06-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>23T08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>:38:00+02:00</t>
-    </r>
   </si>
   <si>
     <t>&lt;div xmlns='http://www.w3.org/1999/xhtml'&gt;
@@ -844,7 +774,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Suliqua </t>
+      <t>EU</t>
     </r>
     <r>
       <rPr>
@@ -853,6 +783,20 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
+      <t>/1/16/1157/002</t>
+    </r>
+  </si>
+  <si>
+    <t>2017-01-11T13:28:17Z</t>
+  </si>
+  <si>
+    <t>Suliqua</t>
+  </si>
+  <si>
+    <t>Insulin glargine, Lixisenatide</t>
+  </si>
+  <si>
+    <r>
       <t>100</t>
     </r>
     <r>
@@ -916,7 +860,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> microgram</t>
+      <t xml:space="preserve"> ug</t>
     </r>
     <r>
       <rPr>
@@ -934,7 +878,15 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ml solution </t>
+      <t>ml</t>
+    </r>
+  </si>
+  <si>
+    <t>Solution for injection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Type I colourless glass cartridge with a black plunger (bromobutyl rubber) and a flanged cap (aluminium) with inserted laminated sealing disks (bromobutyl rubber on the medicinal product side and polyisoprene on the outside) containing </t>
     </r>
     <r>
       <rPr>
@@ -943,7 +895,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>for</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -952,7 +904,42 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> injection </t>
+      <t xml:space="preserve"> ml of solution. Each cartridge is assembled into a disposable pen.</t>
+    </r>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>EU/1/16/1157/003</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>2ZM8CX04RZ</t>
+  </si>
+  <si>
+    <t>74O62BB01U</t>
+  </si>
+  <si>
+    <t>allergenicIndicator</t>
+  </si>
+  <si>
+    <t>Lixisenatide</t>
+  </si>
+  <si>
+    <t>Insulin glargine</t>
+  </si>
+  <si>
+    <t>ug/ml</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Glycerol </t>
     </r>
     <r>
       <rPr>
@@ -961,16 +948,12 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a pre</t>
+      <t>85%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EU</t>
     </r>
     <r>
       <rPr>
@@ -979,652 +962,6 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>filled pen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>EU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>/1/16/1157/002</t>
-    </r>
-  </si>
-  <si>
-    <t>2017-01-11T13:28:17Z</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Suliqua </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> units</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ml </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> micrograms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ml solution </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> injection </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a pre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>filled pen</t>
-    </r>
-  </si>
-  <si>
-    <t>Suliqua</t>
-  </si>
-  <si>
-    <t>Insulin glargine, Lixisenatide</t>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> units</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ml </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ug</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>ml</t>
-    </r>
-  </si>
-  <si>
-    <t>Solution for injection</t>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ml cartridge (glass) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a pre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>filled pen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Type I colourless glass cartridge with a black plunger (bromobutyl rubber) and a flanged cap (aluminium) with inserted laminated sealing disks (bromobutyl rubber on the medicinal product side and polyisoprene on the outside) containing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ml of solution. Each cartridge is assembled into a disposable pen.</t>
-    </r>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Suliqua </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> units</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ml </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> micrograms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ml solution </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> injection </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> x3 pre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>filled pens</t>
-    </r>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>EU/1/16/1157/003</t>
-  </si>
-  <si>
-    <t>Solution</t>
-  </si>
-  <si>
-    <t>2ZM8CX04RZ</t>
-  </si>
-  <si>
-    <t>74O62BB01U</t>
-  </si>
-  <si>
-    <t>allergenicIndicator</t>
-  </si>
-  <si>
-    <t>Lixisenatide</t>
-  </si>
-  <si>
-    <t>Insulin glargine</t>
-  </si>
-  <si>
-    <t>ug/ml</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Glycerol </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>85%</t>
-    </r>
-  </si>
-  <si>
-    <t>Methionine</t>
-  </si>
-  <si>
-    <t>AE28F7PNPL</t>
-  </si>
-  <si>
-    <t>Zinc chloride</t>
-  </si>
-  <si>
-    <t>86Q357L16B</t>
-  </si>
-  <si>
-    <t>Concentrated hydrochloric acid</t>
-  </si>
-  <si>
-    <t>Sodium hydroxide</t>
-  </si>
-  <si>
-    <t>Contraindication</t>
-  </si>
-  <si>
-    <t>Hypersensitivity reaction</t>
-  </si>
-  <si>
-    <t>contraindication</t>
-  </si>
-  <si>
-    <r>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>://spor.ema.europa.eu/rmswi/#/</t>
-    </r>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/</t>
-  </si>
-  <si>
-    <t>Hypertension</t>
-  </si>
-  <si>
-    <t>interaction</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Type </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9D1D9"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> diabetes mellitus</t>
-    </r>
-  </si>
-  <si>
-    <t>Y9449Q51XH</t>
-  </si>
-  <si>
-    <r>
-      <t>https</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>://gsrs.ncats.nih.gov/ginas/app/beta/</t>
-    </r>
-  </si>
-  <si>
-    <t>Bezafibrat</t>
-  </si>
-  <si>
-    <t>TEST PURPOSES ONLY - Suliqua Vulcan ePI</t>
-  </si>
-  <si>
-    <r>
-      <t>EU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
       <t>/1/16/1157/003</t>
     </r>
   </si>
@@ -1633,6 +970,30 @@
   </si>
   <si>
     <t>Denmark</t>
+  </si>
+  <si>
+    <t>inside_packaging_identifier</t>
+  </si>
+  <si>
+    <t>inside_packaging_type</t>
+  </si>
+  <si>
+    <t>inside_packaging_typeID</t>
+  </si>
+  <si>
+    <t>inside_packaging_quantity</t>
+  </si>
+  <si>
+    <t>inside_packaging_material</t>
+  </si>
+  <si>
+    <t>inside_packaging_materialID</t>
+  </si>
+  <si>
+    <t>packaging_quantity</t>
+  </si>
+  <si>
+    <t>adalimumab</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2063,7 +1424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2074,7 +1435,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2105,25 +1466,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -2132,28 +1493,28 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F2" s="10">
         <v>100000073863</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H2" s="10">
         <v>200000002135</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J2" s="9">
         <v>100000073633</v>
@@ -2204,31 +1565,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" t="s">
-        <v>41</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -2244,53 +1605,46 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +1657,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2321,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -2333,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -2341,64 +1695,27 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="4">
-        <v>10020772</v>
-      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="8"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>187</v>
-      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2408,110 +1725,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>90</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>91</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
-      <c r="N1" t="s">
-        <v>95</v>
-      </c>
       <c r="O1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" t="s">
-        <v>155</v>
+        <v>169</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="H2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="K2" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2524,7 +1835,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2552,34 +1863,34 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -2588,10 +1899,10 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -2600,10 +1911,10 @@
         <v>72072</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -2612,16 +1923,16 @@
         <v>100</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -2630,10 +1941,10 @@
         <v>72072</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -2642,22 +1953,22 @@
         <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="M3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5">
         <v>100000072082</v>
@@ -2668,142 +1979,52 @@
         <v>8</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5">
-        <v>100000072082</v>
-      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5">
-        <v>100000072082</v>
-      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5">
-        <v>100000072082</v>
-      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5">
-        <v>100000072082</v>
-      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5">
-        <v>100000072082</v>
-      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5">
-        <v>100000072082</v>
-      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" t="s">
-        <v>161</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2816,7 +2037,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2842,13 +2063,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
@@ -2857,22 +2078,22 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F2" s="10">
         <v>200000002007</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H2" s="9">
         <v>200000002135</v>
@@ -2880,6 +2101,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2888,7 +2110,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2916,67 +2138,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" t="s">
         <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R1" t="s">
         <v>11</v>
       </c>
       <c r="S1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" t="s">
         <v>64</v>
       </c>
-      <c r="T1" t="s">
-        <v>67</v>
-      </c>
       <c r="U1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="V1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="W1" t="s">
         <v>10</v>
@@ -2985,67 +2207,67 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" t="s">
-        <v>158</v>
-      </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="K2" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="N2" t="s">
         <v>8</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="U2" s="5">
         <v>100000072084</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3089,28 +2311,28 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" t="s">
-        <v>75</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -3119,151 +2341,151 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="9">
         <v>220000000034</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="M2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F3" s="10">
         <v>220000000033</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L3" s="9">
         <v>65926</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F4" s="10">
         <v>220000000033</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L4" s="9">
         <v>65927</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F5" s="10">
         <v>220000000033</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
       <c r="J5" s="8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3274,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3299,7 +2521,7 @@
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3313,73 +2535,91 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
       <c r="N1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Q1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T1" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="K2" s="9">
         <v>100000073543</v>
@@ -3388,16 +2628,16 @@
         <v>5</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="N2" s="9">
         <v>200000003204</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3410,7 +2650,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3433,22 +2673,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -3457,31 +2697,31 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2">
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/ePICreator/Adalimumab.xlsx
+++ b/ePICreator/Adalimumab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EDC79D-5C16-7D4C-A410-54ACE03DE249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBE793B-093D-414A-BA7A-452D9F4BF685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="164">
   <si>
     <t>id</t>
   </si>
@@ -126,15 +126,9 @@
     <t>language</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
-    <t>Human use</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -225,19 +219,7 @@
     <t>active ingredient - basis of strength</t>
   </si>
   <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>domainID</t>
-  </si>
-  <si>
     <t>typeID</t>
-  </si>
-  <si>
-    <t>MedicinalProduct</t>
-  </si>
-  <si>
-    <t>Medicinal Product</t>
   </si>
   <si>
     <t>statusSuply</t>
@@ -684,12 +666,6 @@
     <t>classification_texts</t>
   </si>
   <si>
-    <t>https://www.whocc.no/atc_ddd_index/#A10AE54|https://spor.ema.europa.eu/rmswi/#/#100000019249</t>
-  </si>
-  <si>
-    <t>insulin glargine and lixisenatide|Diabetes mellitus inadequate control</t>
-  </si>
-  <si>
     <t>indication</t>
   </si>
   <si>
@@ -939,7 +915,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Glycerol </t>
+      <t>EU</t>
     </r>
     <r>
       <rPr>
@@ -948,20 +924,6 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>85%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>EU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
       <t>/1/16/1157/003</t>
     </r>
   </si>
@@ -994,6 +956,15 @@
   </si>
   <si>
     <t>adalimumab</t>
+  </si>
+  <si>
+    <t>insulin glargine and lixisenatide</t>
+  </si>
+  <si>
+    <t>A10AE54</t>
+  </si>
+  <si>
+    <t>GLYCEROL 85% [WHO-DD]</t>
   </si>
 </sst>
 </file>
@@ -1466,25 +1437,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1493,28 +1464,28 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F2" s="10">
         <v>100000073863</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H2" s="10">
         <v>200000002135</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J2" s="9">
         <v>100000073633</v>
@@ -1565,31 +1536,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" t="s">
-        <v>39</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -1607,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -1624,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1638,13 +1609,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1675,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -1687,7 +1658,7 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -1751,37 +1722,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>88</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" t="s">
-        <v>94</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
@@ -1790,39 +1761,39 @@
     <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1834,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3F4AB6-8E39-3645-80A9-C32AEEA52BB0}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1866,13 +1837,13 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1890,7 +1861,7 @@
         <v>17</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -1899,10 +1870,10 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1911,10 +1882,10 @@
         <v>72072</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -1923,16 +1894,16 @@
         <v>100</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1941,10 +1912,10 @@
         <v>72072</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -1953,19 +1924,19 @@
         <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1979,7 +1950,7 @@
         <v>8</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2063,13 +2034,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
@@ -2078,22 +2049,22 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F2" s="10">
         <v>200000002007</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9">
         <v>200000002135</v>
@@ -2107,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2128,12 +2099,11 @@
     <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.6640625" customWidth="1"/>
     <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="10.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="15" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2144,10 +2114,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
@@ -2162,13 +2132,13 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s">
         <v>25</v>
@@ -2177,102 +2147,72 @@
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="R1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="I2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="5">
+      <c r="O2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="5">
         <v>100000072084</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>139</v>
+      <c r="Q2" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="A10AE54|https://spor.ema.europa.eu/rmswi/#/#100000019249" xr:uid="{F70EF12E-0ECC-BD48-BABD-33862E966F46}"/>
+    <hyperlink ref="D2" r:id="rId1" location="A10AE54|https://spor.ema.europa.eu/rmswi/#/#100000019249" display="https://www.whocc.no/atc_ddd_index/#A10AE54|https://spor.ema.europa.eu/rmswi/#/#100000019249" xr:uid="{F70EF12E-0ECC-BD48-BABD-33862E966F46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2311,28 +2251,28 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -2341,151 +2281,151 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="9">
         <v>220000000034</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F3" s="10">
         <v>220000000033</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L3" s="9">
         <v>65926</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="F4" s="10">
         <v>220000000033</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L4" s="9">
         <v>65927</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F5" s="10">
         <v>220000000033</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2535,58 +2475,58 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="R1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="S1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="T1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="U1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="V1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="W1" t="s">
         <v>10</v>
@@ -2595,31 +2535,31 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K2" s="9">
         <v>100000073543</v>
@@ -2628,16 +2568,16 @@
         <v>5</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N2" s="9">
         <v>200000003204</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2673,22 +2613,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -2697,31 +2637,31 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2">
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
